--- a/datasets/example_ui_log.xlsx
+++ b/datasets/example_ui_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Documents\Master\Thesis\Code\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD3E2C4-C169-4E88-AF3B-1AB3BB2168E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8984A-4F47-42FD-9E53-57AA21C77944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{47059711-E256-425D-A633-C5E176CB9413}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Opera</t>
   </si>
   <si>
-    <t>Microsoft Edge</t>
-  </si>
-  <si>
     <t>browser</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>#HSkdljG_g</t>
+  </si>
+  <si>
+    <t>Safari</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +529,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -605,7 +605,7 @@
         <v>45022.638888888891</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>45130.564583333333</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
